--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/135.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/135.xlsx
@@ -479,13 +479,13 @@
         <v>-0.208783758047954</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.300282832625</v>
+        <v>-1.280442239117641</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04418155929488236</v>
+        <v>-0.06352865654751352</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2127134503803826</v>
+        <v>-0.1961521248852052</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1974011788881166</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.401591189508882</v>
+        <v>-1.380535835989887</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1389255399620387</v>
+        <v>-0.1647421103054864</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2126813293223826</v>
+        <v>-0.200200838241295</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1822396299463657</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.539466450829572</v>
+        <v>-1.51584433276676</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1299593846357684</v>
+        <v>-0.1593939541484878</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2491314299119182</v>
+        <v>-0.2295945264074689</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.159904454334536</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.711425074784435</v>
+        <v>-1.683679780912897</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1372304241284937</v>
+        <v>-0.1702669322814849</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2366801397926488</v>
+        <v>-0.2151955321349273</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1247823554999888</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.806925360362682</v>
+        <v>-1.781111710115416</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1525244278807624</v>
+        <v>-0.182145883549118</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2299244972760143</v>
+        <v>-0.214513689676473</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07220942027229778</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.678890823174716</v>
+        <v>-1.642667030039271</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06022748781396896</v>
+        <v>-0.08276771024141745</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2177184952360176</v>
+        <v>-0.2034275445222032</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0008462703791038176</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.47167495792059</v>
+        <v>-1.439204948426871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008250227697739927</v>
+        <v>-0.01392206261079957</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.193484617023115</v>
+        <v>-0.1831299559623905</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.08699641562086063</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.254037269393558</v>
+        <v>-1.229831132094382</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1458583002177939</v>
+        <v>0.1205133254077098</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1796959228525732</v>
+        <v>-0.1738250694790294</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1884347841564403</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8925717034792</v>
+        <v>-0.8752978745156592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2225444060965915</v>
+        <v>0.2014189702692335</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.136202550272494</v>
+        <v>-0.1419171785003107</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3021533271805039</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5238949600438445</v>
+        <v>-0.5162997898749374</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1893341522207822</v>
+        <v>0.1772113729219673</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06872204760687577</v>
+        <v>-0.07546892983496487</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4304195753227035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04362865298854861</v>
+        <v>0.0358568170006416</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1430593880275219</v>
+        <v>0.1436127462539763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04774890870109295</v>
+        <v>0.04079761974027664</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5753487625650809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5348501527900531</v>
+        <v>0.5234194362863289</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08879086053653648</v>
+        <v>0.09146712868717212</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1931010762953267</v>
+        <v>0.1842634052010563</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7363285803961919</v>
       </c>
       <c r="E14" t="n">
-        <v>1.114473184351807</v>
+        <v>1.101348812062628</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04085264964761053</v>
+        <v>-0.0412512427764286</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3065161519490235</v>
+        <v>0.2929800460982089</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9079319929707073</v>
       </c>
       <c r="E15" t="n">
-        <v>1.738776607591548</v>
+        <v>1.727972251718824</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1733242729838477</v>
+        <v>-0.1798039664113005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5345888041817805</v>
+        <v>0.5175237620952395</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.085371056031748</v>
       </c>
       <c r="E16" t="n">
-        <v>2.425694193209909</v>
+        <v>2.403263474389278</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3117324518577196</v>
+        <v>-0.3177171889823543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6522832807899306</v>
+        <v>0.6377893833914799</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.262744834346883</v>
       </c>
       <c r="E17" t="n">
-        <v>3.097199511180638</v>
+        <v>3.067434970799373</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4388515388926855</v>
+        <v>-0.4491331975488645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7945781076818015</v>
+        <v>0.7810376216867142</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.436837020554447</v>
       </c>
       <c r="E18" t="n">
-        <v>3.708648671028019</v>
+        <v>3.668396605209757</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5832356946026467</v>
+        <v>-0.5913681624690081</v>
       </c>
       <c r="G18" t="n">
-        <v>0.981191234325115</v>
+        <v>0.9596058833491208</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.606644189973653</v>
       </c>
       <c r="E19" t="n">
-        <v>4.21723306272661</v>
+        <v>4.169555192317986</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7482985114241478</v>
+        <v>-0.7599540753338719</v>
       </c>
       <c r="G19" t="n">
-        <v>1.090421812150268</v>
+        <v>1.070606039460455</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.772913019904095</v>
       </c>
       <c r="E20" t="n">
-        <v>4.679951503697395</v>
+        <v>4.634251998451952</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9275194145831906</v>
+        <v>-0.9373980999662789</v>
       </c>
       <c r="G20" t="n">
-        <v>1.277801464041308</v>
+        <v>1.251676823550679</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.933905203045074</v>
       </c>
       <c r="E21" t="n">
-        <v>5.204857773004254</v>
+        <v>5.148771485640087</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.142444333757315</v>
+        <v>-1.144180330937405</v>
       </c>
       <c r="G21" t="n">
-        <v>1.439453608522447</v>
+        <v>1.409566424101546</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.081624732081119</v>
       </c>
       <c r="E22" t="n">
-        <v>5.594976782702695</v>
+        <v>5.538601405816528</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.346725502348714</v>
+        <v>-1.340610820943989</v>
       </c>
       <c r="G22" t="n">
-        <v>1.557543758163233</v>
+        <v>1.530925621417877</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.203297583784557</v>
       </c>
       <c r="E23" t="n">
-        <v>5.835616068853902</v>
+        <v>5.781331480833917</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.546314076375934</v>
+        <v>-1.543258195721662</v>
       </c>
       <c r="G23" t="n">
-        <v>1.697648512918741</v>
+        <v>1.673997193894111</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.287755957579116</v>
       </c>
       <c r="E24" t="n">
-        <v>6.115926321683191</v>
+        <v>6.059293976333024</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.701428125505983</v>
+        <v>-1.692301364889713</v>
       </c>
       <c r="G24" t="n">
-        <v>1.865597844815968</v>
+        <v>1.837521120027794</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.333169776009331</v>
       </c>
       <c r="E25" t="n">
-        <v>6.208744498918438</v>
+        <v>6.161193652693724</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.877241276420845</v>
+        <v>-1.871900420504301</v>
       </c>
       <c r="G25" t="n">
-        <v>1.870997102656149</v>
+        <v>1.850315521448427</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.342486948325452</v>
       </c>
       <c r="E26" t="n">
-        <v>6.245207739940793</v>
+        <v>6.190964033267353</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.915597469793062</v>
+        <v>-1.912716064885653</v>
       </c>
       <c r="G26" t="n">
-        <v>1.872305305745603</v>
+        <v>1.848213052197519</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.322012205041217</v>
       </c>
       <c r="E27" t="n">
-        <v>6.221395815626162</v>
+        <v>6.177022034047265</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.983996342707862</v>
+        <v>-1.976070471646364</v>
       </c>
       <c r="G27" t="n">
-        <v>1.967088707711214</v>
+        <v>1.942082464058221</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.275875543721621</v>
       </c>
       <c r="E28" t="n">
-        <v>6.30793140592623</v>
+        <v>6.26046670253888</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.063725918832158</v>
+        <v>-2.055820488443933</v>
       </c>
       <c r="G28" t="n">
-        <v>2.00095306313175</v>
+        <v>1.976120565201575</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.207225014117175</v>
       </c>
       <c r="E29" t="n">
-        <v>6.187957794248171</v>
+        <v>6.146403365532819</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.123318511686642</v>
+        <v>-2.118591605992326</v>
       </c>
       <c r="G29" t="n">
-        <v>2.015703928994201</v>
+        <v>1.988091499498936</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.117738189317684</v>
       </c>
       <c r="E30" t="n">
-        <v>6.155779794372634</v>
+        <v>6.110090509463829</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.258510934640288</v>
+        <v>-2.246207839402246</v>
       </c>
       <c r="G30" t="n">
-        <v>2.05587131202319</v>
+        <v>2.022107699920927</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.010270023769079</v>
       </c>
       <c r="E31" t="n">
-        <v>6.024486429845761</v>
+        <v>5.982482306318408</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.345597693094673</v>
+        <v>-2.325897994228088</v>
       </c>
       <c r="G31" t="n">
-        <v>1.968612997918123</v>
+        <v>1.942647502669402</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.888479201553482</v>
       </c>
       <c r="E32" t="n">
-        <v>5.808117523109728</v>
+        <v>5.766005356023649</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.381582038343209</v>
+        <v>-2.355474188405625</v>
       </c>
       <c r="G32" t="n">
-        <v>1.927814874113861</v>
+        <v>1.910135151781047</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.755476414606818</v>
       </c>
       <c r="E33" t="n">
-        <v>5.639741857169955</v>
+        <v>5.592661146430513</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.444459739402238</v>
+        <v>-2.413704556391291</v>
       </c>
       <c r="G33" t="n">
-        <v>1.927222094588952</v>
+        <v>1.908283810801775</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.614171521188145</v>
       </c>
       <c r="E34" t="n">
-        <v>5.401348124982564</v>
+        <v>5.351680209026032</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.524839766951034</v>
+        <v>-2.497938380876042</v>
       </c>
       <c r="G34" t="n">
-        <v>1.852181462908608</v>
+        <v>1.827474529114251</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.466737733073348</v>
       </c>
       <c r="E35" t="n">
-        <v>5.19792692471671</v>
+        <v>5.15248730803145</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.543716728718393</v>
+        <v>-2.510004948323357</v>
       </c>
       <c r="G35" t="n">
-        <v>1.795740383858351</v>
+        <v>1.774944918899538</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.318056928539756</v>
       </c>
       <c r="E36" t="n">
-        <v>4.999704955702581</v>
+        <v>4.956645217405502</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.507457164404721</v>
+        <v>-2.476664750167457</v>
       </c>
       <c r="G36" t="n">
-        <v>1.695858493959287</v>
+        <v>1.678942376778018</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.171508067482489</v>
       </c>
       <c r="E37" t="n">
-        <v>4.665505787885944</v>
+        <v>4.623909017775955</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.453701113793644</v>
+        <v>-2.418027758788472</v>
       </c>
       <c r="G37" t="n">
-        <v>1.602907452347766</v>
+        <v>1.588463196584406</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.029592737633781</v>
       </c>
       <c r="E38" t="n">
-        <v>4.477261787525086</v>
+        <v>4.444042773360731</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.322572734701043</v>
+        <v>-2.287854251147325</v>
       </c>
       <c r="G38" t="n">
-        <v>1.501466231087612</v>
+        <v>1.49053777112716</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8937032616754064</v>
       </c>
       <c r="E39" t="n">
-        <v>4.122729989994453</v>
+        <v>4.096617029888551</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.28334708269069</v>
+        <v>-2.255577698025652</v>
       </c>
       <c r="G39" t="n">
-        <v>1.398902232845548</v>
+        <v>1.38757663980437</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.766255057115061</v>
       </c>
       <c r="E40" t="n">
-        <v>3.774304113580001</v>
+        <v>3.753190358137371</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.202569192037121</v>
+        <v>-2.17496406278231</v>
       </c>
       <c r="G40" t="n">
-        <v>1.289332923863305</v>
+        <v>1.279023524293399</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6485597198935815</v>
       </c>
       <c r="E41" t="n">
-        <v>3.508173847809618</v>
+        <v>3.486892186836533</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.116192016954917</v>
+        <v>-2.083293483346516</v>
       </c>
       <c r="G41" t="n">
-        <v>1.168322678040701</v>
+        <v>1.158925808527613</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5407957025150425</v>
       </c>
       <c r="E42" t="n">
-        <v>3.162451980459529</v>
+        <v>3.15046644568126</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.995962896860949</v>
+        <v>-1.96868189828232</v>
       </c>
       <c r="G42" t="n">
-        <v>1.059832344597639</v>
+        <v>1.057052413032549</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4419351637462673</v>
       </c>
       <c r="E43" t="n">
-        <v>2.944529582554769</v>
+        <v>2.9326885925375</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.964853652187958</v>
+        <v>-1.940907403448964</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9408997472083985</v>
+        <v>0.9414750061562166</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3509912316568544</v>
       </c>
       <c r="E44" t="n">
-        <v>2.689835873480475</v>
+        <v>2.679154161647386</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.926916492617831</v>
+        <v>-1.903626535495701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8261750084171566</v>
+        <v>0.8236301445947029</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2676023842863869</v>
       </c>
       <c r="E45" t="n">
-        <v>2.416660875671457</v>
+        <v>2.412844309961821</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.77912604471178</v>
+        <v>-1.75727350493515</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7182978951722765</v>
+        <v>0.7195170353281853</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1906856454714439</v>
       </c>
       <c r="E46" t="n">
-        <v>2.212040975922966</v>
+        <v>2.209986688259058</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.689495152458986</v>
+        <v>-1.677224908302989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6999261100443723</v>
+        <v>0.6996078195605543</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1190896116585851</v>
       </c>
       <c r="E47" t="n">
-        <v>1.896095329338869</v>
+        <v>1.899542502881505</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.640998195071363</v>
+        <v>-1.632673000857001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5753241459181331</v>
+        <v>0.5820535075691313</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05163383294886949</v>
       </c>
       <c r="E48" t="n">
-        <v>1.763334616480632</v>
+        <v>1.761851207620269</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.571901419169109</v>
+        <v>-1.561167145604748</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5091241054282418</v>
+        <v>0.513965624897695</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.01169404736107456</v>
       </c>
       <c r="E49" t="n">
-        <v>1.564611850971322</v>
+        <v>1.568638663606048</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.554118033421841</v>
+        <v>-1.546280495269843</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4273862331549001</v>
+        <v>0.4350456454398071</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07103419987921152</v>
       </c>
       <c r="E50" t="n">
-        <v>1.458314509760805</v>
+        <v>1.462423085088622</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.428123183416874</v>
+        <v>-1.42205814364724</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3730636838845511</v>
+        <v>0.3811202292501852</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1270645356244336</v>
       </c>
       <c r="E51" t="n">
-        <v>1.306695815760391</v>
+        <v>1.315661971086661</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.367433364422072</v>
+        <v>-1.363539416163619</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3015943298345702</v>
+        <v>0.3108101533843859</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1801182682900184</v>
       </c>
       <c r="E52" t="n">
-        <v>1.221274242153687</v>
+        <v>1.22924902482623</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.30982716699527</v>
+        <v>-1.304658596753453</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2363827419022241</v>
+        <v>0.2457752312710398</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2300448858256549</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9936731854542935</v>
+        <v>1.003665754588473</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.249677565794104</v>
+        <v>-1.249368035598831</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1973687968650528</v>
+        <v>0.2072255815267774</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2763821004948015</v>
       </c>
       <c r="E54" t="n">
-        <v>1.078027463906543</v>
+        <v>1.082200281350361</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.238554919437562</v>
+        <v>-1.242145177693106</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1077437448046223</v>
+        <v>0.1172398975878925</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3189594117835785</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8910872864908665</v>
+        <v>0.8972472293864103</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.212320775340114</v>
+        <v>-1.21718273548284</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06109374825199847</v>
+        <v>0.07106587671290487</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3581165774856317</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8589326473847843</v>
+        <v>0.8717080681802354</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.181434918025031</v>
+        <v>-1.185761040518394</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03118174301355195</v>
+        <v>0.03595026007845976</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3940618006968455</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7559598356772664</v>
+        <v>0.7713925439981714</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.139426414353407</v>
+        <v>-1.149900799357585</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.001675179224257408</v>
+        <v>0.004786993626104493</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4268722352289865</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7110794174108239</v>
+        <v>0.7220575190063664</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.120140639120593</v>
+        <v>-1.135314918929408</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09096296017568797</v>
+        <v>-0.08731137990032532</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4564020747366154</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5589716072999557</v>
+        <v>0.579148011868223</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.065975775044063</v>
+        <v>-1.076213632257514</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1581339326460336</v>
+        <v>-0.1511841037333082</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4832670161143652</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5576166826715924</v>
+        <v>0.5872147775704936</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.007927183045714</v>
+        <v>-1.022491162752529</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1927049513425697</v>
+        <v>-0.1817691911416636</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5078906319979509</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4254516694344461</v>
+        <v>0.4533342078265295</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.011542262118804</v>
+        <v>-1.025231673019164</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2432094748551926</v>
+        <v>-0.2311918190189231</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5307873438641931</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3300681877034717</v>
+        <v>0.3587741932188276</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9967110936113539</v>
+        <v>-1.013138094682168</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3116959506554469</v>
+        <v>-0.2982839488923596</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5521193984295486</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2872362169085741</v>
+        <v>0.3110189402613859</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.080516393981422</v>
+        <v>-1.097235404670418</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3476364944612554</v>
+        <v>-0.3337952385594409</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5725137797145128</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1864534773374193</v>
+        <v>0.2192446974111378</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.038182299585525</v>
+        <v>-1.04876326810034</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4038775469230585</v>
+        <v>-0.3894186906787896</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.592469057776234</v>
       </c>
       <c r="E65" t="n">
-        <v>0.107428374416986</v>
+        <v>0.142802419563522</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9645652147938171</v>
+        <v>-0.982011329432085</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4270777110875977</v>
+        <v>-0.4146702224110556</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6121163746701587</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05427240357127303</v>
+        <v>0.08382961712362873</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.020336131770347</v>
+        <v>-1.036203934422343</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4518211460842275</v>
+        <v>-0.4373929508498677</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6311285983811756</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08778050725762766</v>
+        <v>0.1195423934272555</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9958350647568086</v>
+        <v>-1.014335334116713</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4726881533994945</v>
+        <v>-0.4583300404734984</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6486886690984806</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.009714204012800704</v>
+        <v>0.02472687040364459</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.053007627900612</v>
+        <v>-1.066391888749971</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4821886863270375</v>
+        <v>-0.4702571733281316</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6642409922171219</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.05694967984987893</v>
+        <v>-0.01770066707007129</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.083074398236694</v>
+        <v>-1.097867605493781</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4866622736775817</v>
+        <v>-0.4798511493334927</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.676658538125689</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.09219378071632402</v>
+        <v>-0.06184814119487762</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.161404518265855</v>
+        <v>-1.177594991545942</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5286868378782068</v>
+        <v>-0.5201499366906637</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6852174230432375</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1548079430949436</v>
+        <v>-0.1213611614284071</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.304005955256817</v>
+        <v>-1.323994013621357</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6092245506208216</v>
+        <v>-0.5992655625927333</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6884976539139358</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2040597453455667</v>
+        <v>-0.1684360319754853</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.344338323720079</v>
+        <v>-1.362000525475801</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5882378193621</v>
+        <v>-0.5789460733115569</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6855259345429802</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1965142168117505</v>
+        <v>-0.1643128561667592</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.353906018859803</v>
+        <v>-1.372918765099616</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6218817075209091</v>
+        <v>-0.6082404782075491</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6750584307941084</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1501781305986721</v>
+        <v>-0.119603263526953</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.389677197087066</v>
+        <v>-1.409780599250788</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6236469056628177</v>
+        <v>-0.6130469565228205</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6563101559895815</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.08919046179332482</v>
+        <v>-0.06043919478715072</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.447938956106687</v>
+        <v>-1.472226856098954</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6144675833152747</v>
+        <v>-0.5993867465842787</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6286890670013591</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.04959979776024454</v>
+        <v>-0.01566097988707183</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.355262403536257</v>
+        <v>-1.38296681606125</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6135068716714568</v>
+        <v>-0.6000627488503695</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5922617557984805</v>
       </c>
       <c r="E77" t="n">
-        <v>0.08300030980799258</v>
+        <v>0.1160368179609837</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.355574853827712</v>
+        <v>-1.379214492467615</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5165392377618464</v>
+        <v>-0.5025519770509411</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5470586531378278</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2373200927765875</v>
+        <v>0.2657793501645799</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.305787213927725</v>
+        <v>-1.329283767854719</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5429383672935666</v>
+        <v>-0.5258908457841166</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4936610741635795</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3258559489612001</v>
+        <v>0.3525719089286475</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.2653044605111</v>
+        <v>-1.287101518460276</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4863366829533091</v>
+        <v>-0.4682306265779503</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4335745201326105</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4671010012757076</v>
+        <v>0.4952156873142455</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.284490952473731</v>
+        <v>-1.304689257763362</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.442170228203321</v>
+        <v>-0.4269871881059614</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3682132457600062</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4808239932821585</v>
+        <v>0.5164258059308762</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215474479216477</v>
+        <v>-1.238611861313107</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.353720514856072</v>
+        <v>-0.3382031237458943</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2996659502273174</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6065823154963974</v>
+        <v>0.6365965241012076</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.161094988070583</v>
+        <v>-1.178745509441578</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.32383187038708</v>
+        <v>-0.3093233725077202</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2302216141797978</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7406731321654524</v>
+        <v>0.7760092160616247</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.131886726011954</v>
+        <v>-1.148585296027677</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2613169912786422</v>
+        <v>-0.2470231204686461</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1634713427077923</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9873263564031134</v>
+        <v>1.012529706548379</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074699562387242</v>
+        <v>-1.090656427972783</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2292601753946509</v>
+        <v>-0.2151429704036546</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1027202636533422</v>
       </c>
       <c r="E85" t="n">
-        <v>1.075749788884726</v>
+        <v>1.100824654797992</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9454736259570949</v>
+        <v>-0.9638103699308173</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1660298727216678</v>
+        <v>-0.1574155889853065</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05130006948988938</v>
       </c>
       <c r="E86" t="n">
-        <v>1.284757133146397</v>
+        <v>1.307622946298118</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8791976629664763</v>
+        <v>-0.889372738112019</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.08638132926641648</v>
+        <v>-0.07832770399696409</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0122796629442011</v>
       </c>
       <c r="E87" t="n">
-        <v>1.407011339942455</v>
+        <v>1.422921483989087</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8086072578672225</v>
+        <v>-0.8115945162612217</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03164412633824936</v>
+        <v>-0.0236109417420697</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01160266192770846</v>
       </c>
       <c r="E88" t="n">
-        <v>1.513717494618427</v>
+        <v>1.535041496986148</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6770029030969852</v>
+        <v>-0.6837848264792561</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001196283450439355</v>
+        <v>0.006273322582649548</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01841178964910696</v>
       </c>
       <c r="E89" t="n">
-        <v>1.630657126363577</v>
+        <v>1.647414098302936</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5951394666878254</v>
+        <v>-0.5974609431523702</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06354662904472508</v>
+        <v>0.07034899310026871</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.007416887159098096</v>
       </c>
       <c r="E90" t="n">
-        <v>1.692735451092833</v>
+        <v>1.70201697680674</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4984288012422149</v>
+        <v>-0.5045142816851224</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06627399887854253</v>
+        <v>0.07187620340335921</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02059170989303165</v>
       </c>
       <c r="E91" t="n">
-        <v>1.711678115024283</v>
+        <v>1.712199352192737</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3202678929971718</v>
+        <v>-0.3262409497370793</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1096184465533491</v>
+        <v>0.1134072713492571</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06380918825755431</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70116576876974</v>
+        <v>1.702047637816649</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1908404699304793</v>
+        <v>-0.1914157288782974</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1306621196876162</v>
+        <v>0.1333383878382518</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.118611705664799</v>
       </c>
       <c r="E93" t="n">
-        <v>1.743466282059547</v>
+        <v>1.732359696232004</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.005176374546256468</v>
+        <v>-0.01169986941643653</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1148979804500749</v>
+        <v>0.1181538876928013</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.179010897566152</v>
       </c>
       <c r="E94" t="n">
-        <v>1.70362448975483</v>
+        <v>1.688133379510289</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08306893206826529</v>
+        <v>0.07645491421644889</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05645371541909062</v>
+        <v>0.05667418268081783</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2382886677485711</v>
       </c>
       <c r="E95" t="n">
-        <v>1.642152084983301</v>
+        <v>1.625227207513487</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1958226059367805</v>
+        <v>0.1935186500493265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03054516204591576</v>
+        <v>0.03215121494591533</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.290781075766805</v>
       </c>
       <c r="E96" t="n">
-        <v>1.536067910794057</v>
+        <v>1.518585294953516</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2435720187018585</v>
+        <v>0.2361900155542242</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01463793809546548</v>
+        <v>0.01487884603046542</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3327001230715091</v>
       </c>
       <c r="E97" t="n">
-        <v>1.38245187100528</v>
+        <v>1.368268963850193</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3087573257685683</v>
+        <v>0.3025331407570245</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03779968908952044</v>
+        <v>-0.03343268524961251</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3615665250033279</v>
       </c>
       <c r="E98" t="n">
-        <v>1.282993395052579</v>
+        <v>1.267252616584493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3409178050670142</v>
+        <v>0.3367668883445608</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02866562823279561</v>
+        <v>-0.03026000074806792</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3786455588892936</v>
       </c>
       <c r="E99" t="n">
-        <v>1.108354122802808</v>
+        <v>1.095642944123357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3456176998716494</v>
+        <v>0.3401980013581962</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09526864199577773</v>
+        <v>-0.09033075935232451</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3856952972764842</v>
       </c>
       <c r="E100" t="n">
-        <v>1.016206107641287</v>
+        <v>1.009618370655107</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3167686096433844</v>
+        <v>0.3086098609113865</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1506336656030356</v>
+        <v>-0.1453322309849461</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.386797553853935</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8872050186171403</v>
+        <v>0.8848645615274137</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3598195876519182</v>
+        <v>0.3513775895902841</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.081047773590327</v>
+        <v>-0.08047251464250897</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.381766293765305</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7409374008699068</v>
+        <v>0.7376303919439986</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2941991862541177</v>
+        <v>0.2839861498582114</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.190253530597934</v>
+        <v>-0.1900403635766614</v>
       </c>
     </row>
   </sheetData>
